--- a/lib/PHPExcel/templates/Report Loa_V2.xlsx
+++ b/lib/PHPExcel/templates/Report Loa_V2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
   <si>
     <t>Date de l'essai</t>
   </si>
@@ -496,7 +496,7 @@
     <numFmt numFmtId="167" formatCode="#0.0#"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +727,17 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1029,12 +1040,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1304,6 +1316,12 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
@@ -1335,10 +1353,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1886,7 +1905,7 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1904,32 +1923,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="117" t="s">
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="119" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="117"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="117"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="119"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -1937,7 +1956,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="117"/>
+      <c r="G4" s="119"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -1950,7 +1969,7 @@
         <v>44</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="117"/>
+      <c r="G5" s="119"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
@@ -1962,7 +1981,7 @@
       <c r="F6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="117"/>
+      <c r="G6" s="119"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
@@ -1972,7 +1991,7 @@
         <v>63</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="117"/>
+      <c r="G7" s="119"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -1980,7 +1999,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="117"/>
+      <c r="G8" s="119"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
@@ -1990,7 +2009,7 @@
         <v>62</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="117"/>
+      <c r="G9" s="119"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -1998,7 +2017,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="26"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="117"/>
+      <c r="G10" s="119"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
@@ -2006,7 +2025,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="119"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
@@ -2023,57 +2042,57 @@
       <c r="B13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="125"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -2238,16 +2257,16 @@
       <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="118" t="s">
+      <c r="A35" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -2257,11 +2276,11 @@
       <c r="B37" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
@@ -2483,12 +2502,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:CY74"/>
+  <dimension ref="A1:CY74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D14" sqref="D14:D15"/>
-      <selection pane="topRight" activeCell="F27" sqref="F27"/>
+      <selection pane="topRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2499,10 +2518,15 @@
     <col min="4" max="87" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="117" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>69</v>
       </c>
@@ -2512,7 +2536,7 @@
       </c>
       <c r="D5" s="46"/>
     </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>70</v>
       </c>
@@ -2522,7 +2546,7 @@
       </c>
       <c r="D6" s="46"/>
     </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>71</v>
       </c>
@@ -2532,7 +2556,7 @@
       </c>
       <c r="D7" s="49"/>
     </row>
-    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>72</v>
       </c>
@@ -2542,7 +2566,7 @@
       </c>
       <c r="D8" s="49"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>73</v>
       </c>
@@ -2552,7 +2576,7 @@
       </c>
       <c r="D9" s="49"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2584,7 @@
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
     </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>74</v>
       </c>
@@ -2570,7 +2594,7 @@
       </c>
       <c r="D11" s="49"/>
     </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>76</v>
       </c>
@@ -2580,7 +2604,7 @@
       </c>
       <c r="D12" s="49"/>
     </row>
-    <row r="13" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>78</v>
       </c>
@@ -2590,7 +2614,7 @@
       </c>
       <c r="D13" s="49"/>
     </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="55" t="s">
         <v>79</v>
@@ -2600,7 +2624,7 @@
       </c>
       <c r="D14" s="57"/>
     </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="59" t="s">
         <v>79</v>
@@ -2610,7 +2634,7 @@
       </c>
       <c r="D15" s="61"/>
     </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>80</v>
       </c>
@@ -3170,7 +3194,7 @@
       <c r="A51" s="47"/>
       <c r="B51" s="97"/>
       <c r="C51" s="98"/>
-      <c r="D51" s="41"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="47"/>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
